--- a/Report/Report.xlsx
+++ b/Report/Report.xlsx
@@ -44,7 +44,7 @@
     <t>2019/12/1 13:00</t>
   </si>
   <si>
-    <t>2019-12-10 17:40:21</t>
+    <t>2019-12-11 15:03:11</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>96秒</t>
+    <t>113秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -132,11 +132,17 @@
 点击颜值贷
 点击借款
 点击我知道了
-切换
+点击输入金额
+点击输入金额2
+点击期数
+点击期数
+点击银行卡
+点击银行卡
+点击确定
 </t>
   </si>
   <si>
-    <t xml:space="preserve">check用户名
+    <t xml:space="preserve">check
 </t>
   </si>
 </sst>
